--- a/data/trans_camb/P2A_lim_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 8,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 2,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,63; 18,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 6,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 6,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,73; 17,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 6,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 4,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,87; 16,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,65%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,84; 86,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; 30,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,94; 185,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,3; 58,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,89; 57,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,0; 163,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,21; 59,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 36,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,84; 154,97</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 7,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 2,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 39,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 4,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 2,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,39; 23,76</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>261,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,5%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,02; 96,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 72,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,45; 188,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,09; 120,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; 59,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,53; 783,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,7; 100,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 51,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>100,58; 450,84</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,36; 8,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 5,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 1,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 4,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 4,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,88%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,06; 181,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,85; 117,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,7; 329,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 136,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; 50,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 112,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 114,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,68; 52,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,03; 160,06</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 4,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 1,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 7,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 4,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 1,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,43; 30,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 4,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,5; 18,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,74%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,2; 70,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 27,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,77; 130,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,9; 66,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,39; 26,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,99; 393,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,89; 60,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 20,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,35; 251,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_lim_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,66</t>
+          <t>14,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,55</t>
+          <t>14,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,2</t>
+          <t>1,85; 8,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,93</t>
+          <t>-3,15; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,49</t>
+          <t>10,62; 18,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,51</t>
+          <t>0,71; 6,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,39</t>
+          <t>0,22; 6,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 17,69</t>
+          <t>11,66; 17,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,34</t>
+          <t>2,45; 6,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,11</t>
+          <t>-0,29; 3,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,77</t>
+          <t>12,2; 17,14</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>129,12%</t>
+          <t>128,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>120,75%</t>
+          <t>120,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>124,65%</t>
+          <t>124,44%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 86,25</t>
+          <t>15,14; 86,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 30,29</t>
+          <t>-25,51; 28,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,94; 185,75</t>
+          <t>84,11; 185,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 58,69</t>
+          <t>5,33; 58,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 57,95</t>
+          <t>1,15; 59,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,0; 163,75</t>
+          <t>86,8; 162,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 59,31</t>
+          <t>18,81; 58,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 36,81</t>
+          <t>-2,07; 36,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,84; 154,97</t>
+          <t>96,74; 158,59</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>10,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,04</t>
+          <t>0,85; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,94</t>
+          <t>-0,07; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,95</t>
+          <t>2,62; 8,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,6</t>
+          <t>1,89; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,62</t>
+          <t>-0,66; 2,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 39,92</t>
+          <t>5,17; 36,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,46</t>
+          <t>1,82; 4,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,3</t>
+          <t>0,09; 2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 23,76</t>
+          <t>5,47; 24,47</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>124,45%</t>
+          <t>125,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>72,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>261,97%</t>
+          <t>263,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,55%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>195,5%</t>
+          <t>196,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 96,91</t>
+          <t>13,63; 93,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 72,26</t>
+          <t>-1,33; 76,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,45; 188,51</t>
+          <t>47,32; 201,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,09; 120,93</t>
+          <t>30,8; 129,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 59,72</t>
+          <t>-10,28; 61,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 783,16</t>
+          <t>91,26; 823,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,7; 100,71</t>
+          <t>30,43; 96,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 51,37</t>
+          <t>1,53; 53,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>100,58; 450,84</t>
+          <t>104,02; 516,68</t>
         </is>
       </c>
     </row>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,27 +1084,27 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,22</t>
+          <t>-1,53; 4,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,87</t>
+          <t>-2,13; 2,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,5</t>
+          <t>2,42; 8,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,82</t>
+          <t>-0,97; 5,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,89</t>
+          <t>-3,93; 1,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,59</t>
+          <t>-0,75; 4,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,11</t>
+          <t>-0,3; 4,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,88</t>
+          <t>-2,01; 2,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,78</t>
+          <t>1,97; 6,09</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>146,76%</t>
+          <t>148,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,27 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-14,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>83,29%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 181,83</t>
+          <t>-31,74; 166,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 117,0</t>
+          <t>-42,86; 111,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,7; 329,36</t>
+          <t>41,19; 324,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 136,3</t>
+          <t>-15,61; 141,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 50,55</t>
+          <t>-50,79; 45,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 112,06</t>
+          <t>-11,0; 117,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 114,75</t>
+          <t>-7,29; 115,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 52,5</t>
+          <t>-35,02; 56,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,03; 160,06</t>
+          <t>33,6; 165,26</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>8,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,19</t>
+          <t>1,51; 4,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,61</t>
+          <t>-0,88; 1,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,91</t>
+          <t>3,12; 7,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,89</t>
+          <t>1,98; 4,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,93</t>
+          <t>-0,78; 2,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 30,26</t>
+          <t>5,44; 23,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,16</t>
+          <t>2,24; 4,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,39</t>
+          <t>-0,4; 1,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 18,07</t>
+          <t>5,56; 16,54</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>133,4%</t>
+          <t>134,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115,74%</t>
+          <t>116,5%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,2; 70,24</t>
+          <t>19,97; 69,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 27,04</t>
+          <t>-12,32; 27,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,77; 130,46</t>
+          <t>45,6; 125,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,9; 66,6</t>
+          <t>22,83; 66,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 26,63</t>
+          <t>-8,78; 27,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,99; 393,14</t>
+          <t>66,22; 301,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,89; 60,04</t>
+          <t>28,44; 60,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 20,18</t>
+          <t>-5,01; 21,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>73,35; 251,93</t>
+          <t>74,64; 227,35</t>
         </is>
       </c>
     </row>
